--- a/sports_team_system/team_member.xlsx
+++ b/sports_team_system/team_member.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -46,15 +46,21 @@
     <t>proof</t>
   </si>
   <si>
-    <t>郭又嘉</t>
-  </si>
-  <si>
-    <t>vm3</t>
+    <t>帥哥</t>
+  </si>
+  <si>
+    <t>Sharon Lu</t>
+  </si>
+  <si>
+    <t>許亦佑</t>
   </si>
   <si>
     <t>COYADI</t>
   </si>
   <si>
+    <t>b06705037</t>
+  </si>
+  <si>
     <t>b06705021</t>
   </si>
   <si>
@@ -64,7 +70,10 @@
     <t>F</t>
   </si>
   <si>
-    <t>images/personal_photo/tumblr_p4zw9d1lyA1u3sw5uo1_1280_QLJ83ih.jpg</t>
+    <t>images/personal_photo/tai-tzu-ying-premier-badminton-league-ahmedabad-smash-masters_nEfRT5G.JPG</t>
+  </si>
+  <si>
+    <t>images/personal_photo/unknown_user_02Xg2DJ.jpg</t>
   </si>
   <si>
     <t>images/personal_photo/unknown_user.jpg</t>
@@ -431,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,25 +486,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,16 +515,36 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
